--- a/english-phrases.xlsx
+++ b/english-phrases.xlsx
@@ -11,12 +11,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="916">
   <si>
     <t>Phrase</t>
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Hello there</t>
+  </si>
+  <si>
+    <t>Howdy</t>
+  </si>
+  <si>
+    <t>Greetings</t>
+  </si>
+  <si>
+    <t>Good day</t>
+  </si>
+  <si>
+    <t>Salutations</t>
+  </si>
+  <si>
+    <t>Hey there</t>
+  </si>
+  <si>
+    <t>What's up</t>
+  </si>
+  <si>
+    <t>How's it going</t>
+  </si>
+  <si>
+    <t>How are you doing</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>Hiya</t>
+  </si>
+  <si>
+    <t>What's happening</t>
+  </si>
+  <si>
+    <t>Good morning</t>
+  </si>
+  <si>
+    <t>Good afternoon</t>
+  </si>
+  <si>
+    <t>Good evening</t>
+  </si>
+  <si>
+    <t>How's everything</t>
+  </si>
+  <si>
+    <t>Nice to see you</t>
+  </si>
+  <si>
+    <t>How do you do</t>
   </si>
   <si>
     <t>How are you?</t>
@@ -2968,6 +3028,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3581,127 +3642,127 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
@@ -4011,107 +4072,107 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232">
@@ -4366,107 +4427,107 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
     </row>
     <row r="303">
@@ -5716,107 +5777,107 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="573">
@@ -6326,292 +6387,292 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>615</v>
+        <v>665</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
     </row>
     <row r="732">
@@ -6876,107 +6937,107 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="s">
-        <v>675</v>
+        <v>771</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
     </row>
     <row r="805">
@@ -7502,6 +7563,106 @@
     <row r="909">
       <c r="A909" s="2" t="s">
         <v>895</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>
